--- a/template Excel/Sales/Order.xlsx
+++ b/template Excel/Sales/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA20148-972E-4520-86D6-5472A8B7AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC81CD-32CC-4BCB-9AAF-DAF5879821B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
+    <workbookView xWindow="1035" yWindow="5850" windowWidth="21600" windowHeight="11835" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>PaymentId</t>
-  </si>
-  <si>
     <t>CustomerId</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>OrderId</t>
   </si>
 </sst>
 </file>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D93232-8F53-4C73-A1E6-BC1999AC755F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,25 +463,24 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -497,9 +496,8 @@
       <c r="E2" s="3">
         <v>999.9</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -515,9 +513,8 @@
       <c r="E3" s="3">
         <v>1799.8</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -533,9 +530,8 @@
       <c r="E4" s="3">
         <v>399.8</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -551,9 +547,8 @@
       <c r="E5" s="3">
         <v>1299.9000000000001</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -569,9 +564,8 @@
       <c r="E6" s="3">
         <v>149.9</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -587,9 +581,8 @@
       <c r="E7" s="3">
         <v>59.8</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -605,9 +598,8 @@
       <c r="E8" s="3">
         <v>399.8</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -623,9 +615,8 @@
       <c r="E9" s="3">
         <v>199.8</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -641,9 +632,8 @@
       <c r="E10" s="3">
         <v>319.8</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -659,7 +649,6 @@
       <c r="E11" s="3">
         <v>179.8</v>
       </c>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template Excel/Sales/Order.xlsx
+++ b/template Excel/Sales/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC81CD-32CC-4BCB-9AAF-DAF5879821B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C8AE4-069A-4C11-8E0B-E21F88A56562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="5850" windowWidth="21600" windowHeight="11835" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>TotalAmount</t>
   </si>
   <si>
-    <t>OrderId</t>
+    <t>OrdersId</t>
   </si>
 </sst>
 </file>
@@ -450,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D93232-8F53-4C73-A1E6-BC1999AC755F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/template Excel/Sales/Order.xlsx
+++ b/template Excel/Sales/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C8AE4-069A-4C11-8E0B-E21F88A56562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA439E-46C4-4F0B-BCFA-C43A9FAFE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{0F869F04-2948-40BA-8253-7E6A9ABCFFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -114,6 +114,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D93232-8F53-4C73-A1E6-BC1999AC755F}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,8 +488,8 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>45505</v>
+      <c r="C2" s="5">
+        <v>44927</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -502,8 +505,8 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>45506</v>
+      <c r="C3" s="5">
+        <v>44942</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -519,8 +522,8 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>45507</v>
+      <c r="C4" s="5">
+        <v>44957</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -536,8 +539,8 @@
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>45508</v>
+      <c r="C5" s="5">
+        <v>44972</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -553,8 +556,8 @@
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>45509</v>
+      <c r="C6" s="5">
+        <v>44987</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -570,8 +573,8 @@
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>45510</v>
+      <c r="C7" s="5">
+        <v>45002</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -587,8 +590,8 @@
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
-        <v>45511</v>
+      <c r="C8" s="5">
+        <v>45017</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -604,8 +607,8 @@
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
-        <v>45512</v>
+      <c r="C9" s="5">
+        <v>45032</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -621,8 +624,8 @@
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
-        <v>45513</v>
+      <c r="C10" s="5">
+        <v>45047</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
